--- a/excel_classification/20240918/[패스트몰] 파인마트.xlsx
+++ b/excel_classification/20240918/[패스트몰] 파인마트.xlsx
@@ -486,7 +486,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>발송요청내역 [총 1건] 2024-09-18</t>
+          <t>발송요청내역 [총 1건] 2024-09-19</t>
         </is>
       </c>
     </row>
